--- a/Sheets/SiC43x.xlsx
+++ b/Sheets/SiC43x.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imagidan\OneDrive - ETS\Drone\Github\Jetson-Carrier-Board\Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://etsmtl365-my.sharepoint.com/personal/daniel_danaie_1_ens_etsmtl_ca/Documents/Drone/Github/Jetson-Carrier-Board/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FEB517-9CB5-45CD-B299-493734A53807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{14FEB517-9CB5-45CD-B299-493734A53807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E1983C6-5641-4B3F-B1DB-3DA621B275D6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,13 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>R_FB_L</t>
-  </si>
-  <si>
-    <t>R_FB_H</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Vout</t>
   </si>
@@ -49,40 +43,73 @@
     <t>Vfb</t>
   </si>
   <si>
-    <t>Vin (nom)</t>
-  </si>
-  <si>
-    <t>Vin (min)</t>
-  </si>
-  <si>
-    <t>Vin (max)</t>
-  </si>
-  <si>
-    <t>Iout_max</t>
-  </si>
-  <si>
-    <t>Fsw</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Vripple</t>
-  </si>
-  <si>
-    <t>Iripple</t>
-  </si>
-  <si>
-    <t>ESRmax</t>
-  </si>
-  <si>
-    <t>Cout_min</t>
+    <t>Vin max</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Lavg</t>
+  </si>
+  <si>
+    <t>f sw</t>
+  </si>
+  <si>
+    <t>delta IL</t>
+  </si>
+  <si>
+    <t>I lim min</t>
+  </si>
+  <si>
+    <t>I ic max</t>
+  </si>
+  <si>
+    <t>I lim</t>
+  </si>
+  <si>
+    <t>percent of I lim</t>
+  </si>
+  <si>
+    <t>I sw max</t>
+  </si>
+  <si>
+    <t>I out max</t>
+  </si>
+  <si>
+    <t>L min 1</t>
+  </si>
+  <si>
+    <t>L min 2</t>
+  </si>
+  <si>
+    <t>R fb L</t>
+  </si>
+  <si>
+    <t>R fb h</t>
+  </si>
+  <si>
+    <t>V ripple</t>
+  </si>
+  <si>
+    <t>max esr</t>
+  </si>
+  <si>
+    <t>input cap</t>
+  </si>
+  <si>
+    <t>Output cap</t>
+  </si>
+  <si>
+    <t>R mode 1</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>R mode 2</t>
   </si>
 </sst>
 </file>
@@ -118,8 +145,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,128 +444,203 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>10000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <f>B1*(B3-B4)/B4</f>
-        <v>73333.333333333343</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>22.2</v>
+        <v>2.7499999999999999E-6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>25.2</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>500000</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>0.2</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <f>B11*(B5-B3)/(B10*B8*B9)</f>
-        <v>2.2933333333333331E-6</v>
+        <v>6.792082314</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>0.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <f>B10*B8</f>
-        <v>3</v>
+        <v>2.5299999999999999E-6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <f>B13/B14</f>
-        <v>9.9999999999999992E-2</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.22663E-6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>73333.333329999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.111111111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>499000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>200000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
